--- a/templates_es/vocabulary_proper_names_es.xlsx
+++ b/templates_es/vocabulary_proper_names_es.xlsx
@@ -10,8 +10,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A18">
+      <text>
+        <t xml:space="preserve">necesito al menos 2 o 3 nombres de blancos porque en SES se comparan solo blancos del mismo genero
+	-Júlia Falcão</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -107,13 +123,19 @@
   </si>
   <si>
     <t>Carmen</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>María</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -138,6 +160,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -172,6 +199,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,23 +657,54 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D12"/>
-    <hyperlink r:id="rId10" ref="D13"/>
-    <hyperlink r:id="rId11" ref="D14"/>
-    <hyperlink r:id="rId12" ref="D15"/>
-    <hyperlink r:id="rId13" ref="D16"/>
-    <hyperlink r:id="rId14" ref="D17"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="D3"/>
+    <hyperlink r:id="rId4" ref="D4"/>
+    <hyperlink r:id="rId5" ref="D5"/>
+    <hyperlink r:id="rId6" ref="D6"/>
+    <hyperlink r:id="rId7" ref="D7"/>
+    <hyperlink r:id="rId8" ref="D8"/>
+    <hyperlink r:id="rId9" ref="D9"/>
+    <hyperlink r:id="rId10" ref="D12"/>
+    <hyperlink r:id="rId11" ref="D13"/>
+    <hyperlink r:id="rId12" ref="D14"/>
+    <hyperlink r:id="rId13" ref="D15"/>
+    <hyperlink r:id="rId14" ref="D16"/>
+    <hyperlink r:id="rId15" ref="D17"/>
+    <hyperlink r:id="rId16" ref="D18"/>
+    <hyperlink r:id="rId17" ref="D19"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>